--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Lgi2-Adam23.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Lgi2-Adam23.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,28 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Lgi2</t>
+  </si>
+  <si>
+    <t>Adam23</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Lgi2</t>
-  </si>
-  <si>
-    <t>Adam23</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,55 +531,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.194537333333334</v>
+        <v>0.3777555</v>
       </c>
       <c r="H2">
-        <v>21.583612</v>
+        <v>0.755511</v>
       </c>
       <c r="I2">
-        <v>0.9450222006930215</v>
+        <v>0.04674878051708328</v>
       </c>
       <c r="J2">
-        <v>0.9617036862109067</v>
+        <v>0.03234814298672928</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.056827</v>
+        <v>0.4562695</v>
       </c>
       <c r="N2">
-        <v>0.113654</v>
+        <v>0.912539</v>
       </c>
       <c r="O2">
-        <v>0.002198372771388981</v>
+        <v>0.01609359429837405</v>
       </c>
       <c r="P2">
-        <v>0.001552001951971484</v>
+        <v>0.01172153108534722</v>
       </c>
       <c r="Q2">
-        <v>0.4088439730413334</v>
+        <v>0.17235831310725</v>
       </c>
       <c r="R2">
-        <v>2.453063838248</v>
+        <v>0.689433252429</v>
       </c>
       <c r="S2">
-        <v>0.002077511074361631</v>
+        <v>0.0007523559075856716</v>
       </c>
       <c r="T2">
-        <v>0.001492565998217499</v>
+        <v>0.0003791697635722041</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,25 +593,25 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.194537333333334</v>
+        <v>0.3777555</v>
       </c>
       <c r="H3">
-        <v>21.583612</v>
+        <v>0.755511</v>
       </c>
       <c r="I3">
-        <v>0.9450222006930215</v>
+        <v>0.04674878051708328</v>
       </c>
       <c r="J3">
-        <v>0.9617036862109067</v>
+        <v>0.03234814298672928</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +626,22 @@
         <v>63.325338</v>
       </c>
       <c r="O3">
-        <v>0.8165877651949714</v>
+        <v>0.7445397209174328</v>
       </c>
       <c r="P3">
-        <v>0.864739016534869</v>
+        <v>0.8134117203287967</v>
       </c>
       <c r="Q3">
-        <v>151.8655027956507</v>
+        <v>7.973831572953001</v>
       </c>
       <c r="R3">
-        <v>1366.789525160856</v>
+        <v>47.842989437718</v>
       </c>
       <c r="S3">
-        <v>0.7716935669235482</v>
+        <v>0.03480632399941951</v>
       </c>
       <c r="T3">
-        <v>0.8316226998119777</v>
+        <v>0.02631235863627737</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +655,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.194537333333334</v>
+        <v>0.3777555</v>
       </c>
       <c r="H4">
-        <v>21.583612</v>
+        <v>0.755511</v>
       </c>
       <c r="I4">
-        <v>0.9450222006930215</v>
+        <v>0.04674878051708328</v>
       </c>
       <c r="J4">
-        <v>0.9617036862109067</v>
+        <v>0.03234814298672928</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.04350366666666667</v>
+        <v>0.006762666666666667</v>
       </c>
       <c r="N4">
-        <v>0.130511</v>
+        <v>0.020288</v>
       </c>
       <c r="O4">
-        <v>0.001682954867502814</v>
+        <v>0.0002385336160064851</v>
       </c>
       <c r="P4">
-        <v>0.001782192679129202</v>
+        <v>0.0002605986403425218</v>
       </c>
       <c r="Q4">
-        <v>0.3129887539702222</v>
+        <v>0.002554634528</v>
       </c>
       <c r="R4">
-        <v>2.816898785732</v>
+        <v>0.015327807168</v>
       </c>
       <c r="S4">
-        <v>0.001590429712554542</v>
+        <v>1.115115566063339E-05</v>
       </c>
       <c r="T4">
-        <v>0.001713941269056646</v>
+        <v>8.429882079947135E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,25 +717,25 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.194537333333334</v>
+        <v>0.3777555</v>
       </c>
       <c r="H5">
-        <v>21.583612</v>
+        <v>0.755511</v>
       </c>
       <c r="I5">
-        <v>0.9450222006930215</v>
+        <v>0.04674878051708328</v>
       </c>
       <c r="J5">
-        <v>0.9617036862109067</v>
+        <v>0.03234814298672928</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.2613175</v>
+        <v>6.745213</v>
       </c>
       <c r="N5">
-        <v>8.522634999999999</v>
+        <v>13.490426</v>
       </c>
       <c r="O5">
-        <v>0.1648505879642311</v>
+        <v>0.2379179881147404</v>
       </c>
       <c r="P5">
-        <v>0.1163808238684119</v>
+        <v>0.1732840434365834</v>
       </c>
       <c r="Q5">
-        <v>30.65820784293667</v>
+        <v>2.5480413094215</v>
       </c>
       <c r="R5">
-        <v>183.94924705762</v>
+        <v>10.192165237686</v>
       </c>
       <c r="S5">
-        <v>0.1557874654234962</v>
+        <v>0.01112237580744203</v>
       </c>
       <c r="T5">
-        <v>0.111923867318514</v>
+        <v>0.005605417014405209</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,60 +779,60 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.3777555</v>
+      </c>
+      <c r="H6">
+        <v>0.755511</v>
+      </c>
+      <c r="I6">
+        <v>0.04674878051708328</v>
+      </c>
+      <c r="J6">
+        <v>0.03234814298672928</v>
+      </c>
+      <c r="K6">
         <v>3</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>7.194537333333334</v>
-      </c>
-      <c r="H6">
-        <v>21.583612</v>
-      </c>
-      <c r="I6">
-        <v>0.9450222006930215</v>
-      </c>
-      <c r="J6">
-        <v>0.9617036862109067</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1263413333333333</v>
+        <v>0.03430933333333333</v>
       </c>
       <c r="N6">
-        <v>0.379024</v>
+        <v>0.102928</v>
       </c>
       <c r="O6">
-        <v>0.00488755955973356</v>
+        <v>0.00121016305344615</v>
       </c>
       <c r="P6">
-        <v>0.005175761414855964</v>
+        <v>0.00132210650893016</v>
       </c>
       <c r="Q6">
-        <v>0.9089674394097779</v>
+        <v>0.012960539368</v>
       </c>
       <c r="R6">
-        <v>8.180706954688</v>
+        <v>0.07776323620799999</v>
       </c>
       <c r="S6">
-        <v>0.004618852291157624</v>
+        <v>5.65736469754374E-05</v>
       </c>
       <c r="T6">
-        <v>0.004977548831615159</v>
+        <v>4.276769039455829E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -844,7 +841,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,46 +850,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7.194537333333334</v>
+        <v>7.194537333333333</v>
       </c>
       <c r="H7">
         <v>21.583612</v>
       </c>
       <c r="I7">
-        <v>0.9450222006930215</v>
+        <v>0.8903532753804024</v>
       </c>
       <c r="J7">
-        <v>0.9617036862109067</v>
+        <v>0.9241291882528327</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.2531386666666667</v>
+        <v>0.4562695</v>
       </c>
       <c r="N7">
-        <v>0.759416</v>
+        <v>0.912539</v>
       </c>
       <c r="O7">
-        <v>0.009792759642172055</v>
+        <v>0.01609359429837405</v>
       </c>
       <c r="P7">
-        <v>0.01037020355076263</v>
+        <v>0.01172153108534722</v>
       </c>
       <c r="Q7">
-        <v>1.821215587843556</v>
+        <v>3.282647951811333</v>
       </c>
       <c r="R7">
-        <v>16.390940290592</v>
+        <v>19.695887710868</v>
       </c>
       <c r="S7">
-        <v>0.00925437526790324</v>
+        <v>0.01432898439620071</v>
       </c>
       <c r="T7">
-        <v>0.00997306298152586</v>
+        <v>0.01083220900698228</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +903,55 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.3961645</v>
+        <v>7.194537333333333</v>
       </c>
       <c r="H8">
-        <v>0.7923290000000001</v>
+        <v>21.583612</v>
       </c>
       <c r="I8">
-        <v>0.05203729305731365</v>
+        <v>0.8903532753804024</v>
       </c>
       <c r="J8">
-        <v>0.03530390186738909</v>
+        <v>0.9241291882528327</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.056827</v>
+        <v>21.108446</v>
       </c>
       <c r="N8">
-        <v>0.113654</v>
+        <v>63.325338</v>
       </c>
       <c r="O8">
-        <v>0.002198372771388981</v>
+        <v>0.7445397209174328</v>
       </c>
       <c r="P8">
-        <v>0.001552001951971484</v>
+        <v>0.8134117203287967</v>
       </c>
       <c r="Q8">
-        <v>0.0225128400415</v>
+        <v>151.8655027956507</v>
       </c>
       <c r="R8">
-        <v>0.090051360166</v>
+        <v>1366.789525160856</v>
       </c>
       <c r="S8">
-        <v>0.0001143973681539872</v>
+        <v>0.662903379169647</v>
       </c>
       <c r="T8">
-        <v>5.479172461039757E-05</v>
+        <v>0.7516975128227911</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,55 +965,55 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.3961645</v>
+        <v>7.194537333333333</v>
       </c>
       <c r="H9">
-        <v>0.7923290000000001</v>
+        <v>21.583612</v>
       </c>
       <c r="I9">
-        <v>0.05203729305731365</v>
+        <v>0.8903532753804024</v>
       </c>
       <c r="J9">
-        <v>0.03530390186738909</v>
+        <v>0.9241291882528327</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>21.108446</v>
+        <v>0.006762666666666667</v>
       </c>
       <c r="N9">
-        <v>63.325338</v>
+        <v>0.020288</v>
       </c>
       <c r="O9">
-        <v>0.8165877651949714</v>
+        <v>0.0002385336160064851</v>
       </c>
       <c r="P9">
-        <v>0.864739016534869</v>
+        <v>0.0002605986403425218</v>
       </c>
       <c r="Q9">
-        <v>8.362416955367001</v>
+        <v>0.04865425780622222</v>
       </c>
       <c r="R9">
-        <v>50.174501732202</v>
+        <v>0.437888320256</v>
       </c>
       <c r="S9">
-        <v>0.04249301684446755</v>
+        <v>0.0002123791862997052</v>
       </c>
       <c r="T9">
-        <v>0.03052866138064957</v>
+        <v>0.0002408268099595266</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,55 +1027,55 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.3961645</v>
+        <v>7.194537333333333</v>
       </c>
       <c r="H10">
-        <v>0.7923290000000001</v>
+        <v>21.583612</v>
       </c>
       <c r="I10">
-        <v>0.05203729305731365</v>
+        <v>0.8903532753804024</v>
       </c>
       <c r="J10">
-        <v>0.03530390186738909</v>
+        <v>0.9241291882528327</v>
       </c>
       <c r="K10">
         <v>2</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.04350366666666667</v>
+        <v>6.745213</v>
       </c>
       <c r="N10">
-        <v>0.130511</v>
+        <v>13.490426</v>
       </c>
       <c r="O10">
-        <v>0.001682954867502814</v>
+        <v>0.2379179881147404</v>
       </c>
       <c r="P10">
-        <v>0.001782192679129202</v>
+        <v>0.1732840434365834</v>
       </c>
       <c r="Q10">
-        <v>0.01723460835316667</v>
+        <v>48.52868674978533</v>
       </c>
       <c r="R10">
-        <v>0.103407650119</v>
+        <v>291.172120498712</v>
       </c>
       <c r="S10">
-        <v>8.75764156424764E-05</v>
+        <v>0.2118310599898748</v>
       </c>
       <c r="T10">
-        <v>6.291835545275662E-05</v>
+        <v>0.1601368423982185</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,60 +1089,60 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.3961645</v>
+        <v>7.194537333333333</v>
       </c>
       <c r="H11">
-        <v>0.7923290000000001</v>
+        <v>21.583612</v>
       </c>
       <c r="I11">
-        <v>0.05203729305731365</v>
+        <v>0.8903532753804024</v>
       </c>
       <c r="J11">
-        <v>0.03530390186738909</v>
+        <v>0.9241291882528327</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.2613175</v>
+        <v>0.03430933333333333</v>
       </c>
       <c r="N11">
-        <v>8.522634999999999</v>
+        <v>0.102928</v>
       </c>
       <c r="O11">
-        <v>0.1648505879642311</v>
+        <v>0.00121016305344615</v>
       </c>
       <c r="P11">
-        <v>0.1163808238684119</v>
+        <v>0.00132210650893016</v>
       </c>
       <c r="Q11">
-        <v>1.68818271672875</v>
+        <v>0.2468397795484444</v>
       </c>
       <c r="R11">
-        <v>6.752730866915</v>
+        <v>2.221558015936</v>
       </c>
       <c r="S11">
-        <v>0.008578378356565155</v>
+        <v>0.001077472638380129</v>
       </c>
       <c r="T11">
-        <v>0.004108697185096308</v>
+        <v>0.001221797214881415</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>23</v>
@@ -1154,7 +1151,7 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1163,51 +1160,51 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.3961645</v>
+        <v>0.5082495</v>
       </c>
       <c r="H12">
-        <v>0.7923290000000001</v>
+        <v>1.016499</v>
       </c>
       <c r="I12">
-        <v>0.05203729305731365</v>
+        <v>0.06289794410251424</v>
       </c>
       <c r="J12">
-        <v>0.03530390186738909</v>
+        <v>0.04352266876043807</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.1263413333333333</v>
+        <v>0.4562695</v>
       </c>
       <c r="N12">
-        <v>0.379024</v>
+        <v>0.912539</v>
       </c>
       <c r="O12">
-        <v>0.00488755955973356</v>
+        <v>0.01609359429837405</v>
       </c>
       <c r="P12">
-        <v>0.005175761414855964</v>
+        <v>0.01172153108534722</v>
       </c>
       <c r="Q12">
-        <v>0.05005195114933333</v>
+        <v>0.23189874524025</v>
       </c>
       <c r="R12">
-        <v>0.300311706896</v>
+        <v>0.927594980961</v>
       </c>
       <c r="S12">
-        <v>0.0002543353691449301</v>
+        <v>0.001012253994587673</v>
       </c>
       <c r="T12">
-        <v>0.0001827245730790939</v>
+        <v>0.0005101523147927454</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>23</v>
@@ -1216,7 +1213,7 @@
         <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1225,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.3961645</v>
+        <v>0.5082495</v>
       </c>
       <c r="H13">
-        <v>0.7923290000000001</v>
+        <v>1.016499</v>
       </c>
       <c r="I13">
-        <v>0.05203729305731365</v>
+        <v>0.06289794410251424</v>
       </c>
       <c r="J13">
-        <v>0.03530390186738909</v>
+        <v>0.04352266876043807</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.2531386666666667</v>
+        <v>21.108446</v>
       </c>
       <c r="N13">
-        <v>0.759416</v>
+        <v>63.325338</v>
       </c>
       <c r="O13">
-        <v>0.009792759642172055</v>
+        <v>0.7445397209174328</v>
       </c>
       <c r="P13">
-        <v>0.01037020355076263</v>
+        <v>0.8134117203287967</v>
       </c>
       <c r="Q13">
-        <v>0.1002845533106667</v>
+        <v>10.728357125277</v>
       </c>
       <c r="R13">
-        <v>0.6017073198640001</v>
+        <v>64.370142751662</v>
       </c>
       <c r="S13">
-        <v>0.0005095887033395412</v>
+        <v>0.04683001774836625</v>
       </c>
       <c r="T13">
-        <v>0.000366108648500974</v>
+        <v>0.03540184886972831</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1278,52 @@
         <v>25</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.5082495</v>
+      </c>
+      <c r="H14">
+        <v>1.016499</v>
+      </c>
+      <c r="I14">
+        <v>0.06289794410251424</v>
+      </c>
+      <c r="J14">
+        <v>0.04352266876043807</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G14">
-        <v>0.02238633333333333</v>
-      </c>
-      <c r="H14">
-        <v>0.067159</v>
-      </c>
-      <c r="I14">
-        <v>0.002940506249664913</v>
-      </c>
-      <c r="J14">
-        <v>0.002992411921704221</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>0.5</v>
-      </c>
       <c r="M14">
-        <v>0.056827</v>
+        <v>0.006762666666666667</v>
       </c>
       <c r="N14">
-        <v>0.113654</v>
+        <v>0.020288</v>
       </c>
       <c r="O14">
-        <v>0.002198372771388981</v>
+        <v>0.0002385336160064851</v>
       </c>
       <c r="P14">
-        <v>0.001552001951971484</v>
+        <v>0.0002605986403425218</v>
       </c>
       <c r="Q14">
-        <v>0.001272148164333333</v>
+        <v>0.003437121952</v>
       </c>
       <c r="R14">
-        <v>0.007632888985999999</v>
+        <v>0.020622731712</v>
       </c>
       <c r="S14">
-        <v>6.464328873362473E-06</v>
+        <v>1.50032740461465E-05</v>
       </c>
       <c r="T14">
-        <v>4.644229143587689E-06</v>
+        <v>1.134194830304811E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,55 +1337,55 @@
         <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.02238633333333333</v>
+        <v>0.5082495</v>
       </c>
       <c r="H15">
-        <v>0.067159</v>
+        <v>1.016499</v>
       </c>
       <c r="I15">
-        <v>0.002940506249664913</v>
+        <v>0.06289794410251424</v>
       </c>
       <c r="J15">
-        <v>0.002992411921704221</v>
+        <v>0.04352266876043807</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>21.108446</v>
+        <v>6.745213</v>
       </c>
       <c r="N15">
-        <v>63.325338</v>
+        <v>13.490426</v>
       </c>
       <c r="O15">
-        <v>0.8165877651949714</v>
+        <v>0.2379179881147404</v>
       </c>
       <c r="P15">
-        <v>0.864739016534869</v>
+        <v>0.1732840434365834</v>
       </c>
       <c r="Q15">
-        <v>0.4725407083046667</v>
+        <v>3.4282511346435</v>
       </c>
       <c r="R15">
-        <v>4.252866374742</v>
+        <v>13.713004538574</v>
       </c>
       <c r="S15">
-        <v>0.002401181426955718</v>
+        <v>0.01496455231742359</v>
       </c>
       <c r="T15">
-        <v>0.002587655342241725</v>
+        <v>0.007541784023959784</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,238 +1402,52 @@
         <v>26</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.02238633333333333</v>
+        <v>0.5082495</v>
       </c>
       <c r="H16">
-        <v>0.067159</v>
+        <v>1.016499</v>
       </c>
       <c r="I16">
-        <v>0.002940506249664913</v>
+        <v>0.06289794410251424</v>
       </c>
       <c r="J16">
-        <v>0.002992411921704221</v>
+        <v>0.04352266876043807</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.04350366666666667</v>
+        <v>0.03430933333333333</v>
       </c>
       <c r="N16">
-        <v>0.130511</v>
+        <v>0.102928</v>
       </c>
       <c r="O16">
-        <v>0.001682954867502814</v>
+        <v>0.00121016305344615</v>
       </c>
       <c r="P16">
-        <v>0.001782192679129202</v>
+        <v>0.00132210650893016</v>
       </c>
       <c r="Q16">
-        <v>0.0009738875832222221</v>
+        <v>0.017437701512</v>
       </c>
       <c r="R16">
-        <v>0.008764988249000001</v>
+        <v>0.104626209072</v>
       </c>
       <c r="S16">
-        <v>4.948739305796011E-06</v>
+        <v>7.611676809058391E-05</v>
       </c>
       <c r="T16">
-        <v>5.33305461980021E-06</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G17">
-        <v>0.02238633333333333</v>
-      </c>
-      <c r="H17">
-        <v>0.067159</v>
-      </c>
-      <c r="I17">
-        <v>0.002940506249664913</v>
-      </c>
-      <c r="J17">
-        <v>0.002992411921704221</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>4.2613175</v>
-      </c>
-      <c r="N17">
-        <v>8.522634999999999</v>
-      </c>
-      <c r="O17">
-        <v>0.1648505879642311</v>
-      </c>
-      <c r="P17">
-        <v>0.1163808238684119</v>
-      </c>
-      <c r="Q17">
-        <v>0.09539527399416665</v>
-      </c>
-      <c r="R17">
-        <v>0.572371643965</v>
-      </c>
-      <c r="S17">
-        <v>0.0004847441841697571</v>
-      </c>
-      <c r="T17">
-        <v>0.0003482593648015949</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G18">
-        <v>0.02238633333333333</v>
-      </c>
-      <c r="H18">
-        <v>0.067159</v>
-      </c>
-      <c r="I18">
-        <v>0.002940506249664913</v>
-      </c>
-      <c r="J18">
-        <v>0.002992411921704221</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M18">
-        <v>0.1263413333333333</v>
-      </c>
-      <c r="N18">
-        <v>0.379024</v>
-      </c>
-      <c r="O18">
-        <v>0.00488755955973356</v>
-      </c>
-      <c r="P18">
-        <v>0.005175761414855964</v>
-      </c>
-      <c r="Q18">
-        <v>0.002828319201777777</v>
-      </c>
-      <c r="R18">
-        <v>0.025454872816</v>
-      </c>
-      <c r="S18">
-        <v>1.437189943100602E-05</v>
-      </c>
-      <c r="T18">
-        <v>1.548801016171169E-05</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G19">
-        <v>0.02238633333333333</v>
-      </c>
-      <c r="H19">
-        <v>0.067159</v>
-      </c>
-      <c r="I19">
-        <v>0.002940506249664913</v>
-      </c>
-      <c r="J19">
-        <v>0.002992411921704221</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>0.2531386666666667</v>
-      </c>
-      <c r="N19">
-        <v>0.759416</v>
-      </c>
-      <c r="O19">
-        <v>0.009792759642172055</v>
-      </c>
-      <c r="P19">
-        <v>0.01037020355076263</v>
-      </c>
-      <c r="Q19">
-        <v>0.005666846571555555</v>
-      </c>
-      <c r="R19">
-        <v>0.051001619144</v>
-      </c>
-      <c r="S19">
-        <v>2.879567092927327E-05</v>
-      </c>
-      <c r="T19">
-        <v>3.103192073580155E-05</v>
+        <v>5.75416036541865E-05</v>
       </c>
     </row>
   </sheetData>
